--- a/eDNA 12S metab/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
+++ b/eDNA 12S metab/example_output/Taxonomic_assignments/CommonNames_required_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA\example_output\Taxonomic_assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BoxDrive\Box\Science\Fisheries\github\resources\docs\eDNA 12S metab\example_output\Taxonomic_assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F7E03E-4429-4950-97D3-476AEE4ACC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B0252B-8229-4EB4-9466-6E4816E9AF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1440" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Species_name</t>
   </si>
@@ -52,22 +52,13 @@
     <t>species</t>
   </si>
   <si>
-    <t>Fundulus heteroclitus or majalis</t>
-  </si>
-  <si>
-    <t>Cololabis saira</t>
-  </si>
-  <si>
     <t>Unassigned</t>
   </si>
   <si>
-    <t>Mareca americana</t>
-  </si>
-  <si>
-    <t>Myrophis vafer</t>
-  </si>
-  <si>
-    <t>Pacific suary</t>
+    <t>Microstomus kitt</t>
+  </si>
+  <si>
+    <t>Lemon sole</t>
   </si>
   <si>
     <t>Teleost Fish</t>
@@ -79,67 +70,19 @@
     <t>Chordata</t>
   </si>
   <si>
-    <t>Mummichog or striped killifish</t>
-  </si>
-  <si>
-    <t>American wigeon</t>
-  </si>
-  <si>
-    <t>Bird</t>
-  </si>
-  <si>
-    <t>Pacific worm eel</t>
-  </si>
-  <si>
     <t>Teleostei</t>
   </si>
   <si>
-    <t>Aves</t>
-  </si>
-  <si>
-    <t>Cyprinodontiformes</t>
-  </si>
-  <si>
-    <t>Fundulidae</t>
-  </si>
-  <si>
-    <t>Fundulus</t>
-  </si>
-  <si>
-    <t>Beloniformes</t>
-  </si>
-  <si>
-    <t>Scomberesocidae</t>
-  </si>
-  <si>
-    <t>Cololabis</t>
-  </si>
-  <si>
-    <t>saira</t>
-  </si>
-  <si>
-    <t>americana</t>
-  </si>
-  <si>
-    <t>vafer</t>
-  </si>
-  <si>
-    <t>Anseriformes</t>
-  </si>
-  <si>
-    <t>Anatidae</t>
-  </si>
-  <si>
-    <t>Mareca</t>
-  </si>
-  <si>
-    <t>Anguilliformes</t>
-  </si>
-  <si>
-    <t>Ophichthidae</t>
-  </si>
-  <si>
-    <t>Myrophis</t>
+    <t>Carangiformes</t>
+  </si>
+  <si>
+    <t>Pleuronectidae</t>
+  </si>
+  <si>
+    <t>Microstomus</t>
+  </si>
+  <si>
+    <t>kitt</t>
   </si>
 </sst>
 </file>
@@ -492,16 +435,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -541,28 +486,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -570,127 +518,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
